--- a/public/excelTemplate/110-35kV主变压器并列运行信息.xlsx
+++ b/public/excelTemplate/110-35kV主变压器并列运行信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>电压等级(kV)</t>
   </si>
   <si>
-    <t>并列ID</t>
+    <t>并列后主变ID</t>
   </si>
   <si>
     <t>并列后主变名称</t>
@@ -1246,14 +1246,14 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.375" style="1" customWidth="1"/>
